--- a/Documentation/FHF_SystemTestCases.xlsx
+++ b/Documentation/FHF_SystemTestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Semester9\SEP490\fu-house-finder\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725B59D6-9BBF-4FE7-8D60-9F6D621417B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FEE32EE-BA73-40CF-BF60-EBA960356EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -238,7 +238,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -302,12 +302,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -325,111 +369,120 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -714,8 +767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15:H15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12:J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -727,57 +780,56 @@
     <col min="6" max="6" width="9.140625" style="1"/>
     <col min="7" max="7" width="8.85546875" style="1" customWidth="1"/>
     <col min="8" max="8" width="3.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="9" width="19.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="15" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="9" t="s">
+      <c r="E1" s="24"/>
+      <c r="F1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="15" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="9" t="s">
+      <c r="E2" s="24"/>
+      <c r="F2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="39" t="s">
+      <c r="G2" s="15"/>
+      <c r="H2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="40"/>
-      <c r="J2" s="33">
+      <c r="I2" s="26"/>
+      <c r="J2" s="11">
         <v>1</v>
       </c>
-      <c r="K2" s="16"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -788,34 +840,32 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="11" t="s">
+      <c r="E4" s="19"/>
+      <c r="F4" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="39" t="s">
+      <c r="G4" s="36"/>
+      <c r="H4" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="40"/>
-      <c r="J4" s="34" t="s">
+      <c r="I4" s="26"/>
+      <c r="J4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="34"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -826,64 +876,60 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>1</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
       <c r="E7" s="2"/>
       <c r="F7" s="6">
         <v>1</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
       <c r="E8" s="2"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -894,225 +940,231 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="24" t="s">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="25" t="s">
+    </row>
+    <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="28" t="s">
+      <c r="C12" s="21"/>
+      <c r="D12" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="25" t="s">
+      <c r="E12" s="32"/>
+      <c r="F12" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="25" t="s">
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="26"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-    </row>
-    <row r="14" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J12" s="43"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="21"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="45"/>
+    </row>
+    <row r="14" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>1</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="9" t="s">
+      <c r="C14" s="28"/>
+      <c r="D14" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9" t="s">
+      <c r="E14" s="15"/>
+      <c r="F14" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="42" t="s">
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-    </row>
-    <row r="15" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J14" s="41"/>
+    </row>
+    <row r="15" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>2</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9" t="s">
+      <c r="C15" s="39"/>
+      <c r="D15" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9" t="s">
+      <c r="E15" s="15"/>
+      <c r="F15" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="42" t="s">
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-    </row>
-    <row r="16" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J15" s="41"/>
+    </row>
+    <row r="16" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>3</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="9" t="s">
+      <c r="C16" s="17"/>
+      <c r="D16" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9" t="s">
+      <c r="E16" s="15"/>
+      <c r="F16" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="42" t="s">
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-    </row>
-    <row r="17" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J16" s="41"/>
+    </row>
+    <row r="17" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>4</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="9" t="s">
+      <c r="C17" s="17"/>
+      <c r="D17" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9" t="s">
+      <c r="E17" s="15"/>
+      <c r="F17" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="42" t="s">
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-    </row>
-    <row r="18" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J17" s="41"/>
+    </row>
+    <row r="18" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>5</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="9" t="s">
+      <c r="C18" s="17"/>
+      <c r="D18" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9" t="s">
+      <c r="E18" s="15"/>
+      <c r="F18" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="42" t="s">
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="35"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="35"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="38"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
+      <c r="J18" s="41"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="13"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="13"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="D19:E19"/>
+  <mergeCells count="50">
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="F12:H13"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="I12:J13"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="F14:H14"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="B12:C13"/>
@@ -1121,42 +1173,22 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D1:E1"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="I14:K14"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D12:E13"/>
     <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="I12:K13"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="F12:H13"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="I18:J18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
